--- a/data_year/zb/人民生活/全国居民平均每百户年末主要耐用消费品拥有量.xlsx
+++ b/data_year/zb/人民生活/全国居民平均每百户年末主要耐用消费品拥有量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,43 +599,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.7</v>
+        <v>22.7129126794</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9</v>
+        <v>119.931238329</v>
       </c>
       <c r="D4" t="n">
-        <v>36.9</v>
+        <v>36.9044133806</v>
       </c>
       <c r="E4" t="n">
-        <v>45.7</v>
+        <v>45.7188785068</v>
       </c>
       <c r="F4" t="n">
-        <v>42.2</v>
+        <v>42.2155958726</v>
       </c>
       <c r="G4" t="n">
-        <v>86.40000000000001</v>
+        <v>86.4123545881</v>
       </c>
       <c r="H4" t="n">
-        <v>71.2</v>
+        <v>71.1645900932</v>
       </c>
       <c r="I4" t="n">
-        <v>20.4</v>
+        <v>20.3921549472</v>
       </c>
       <c r="J4" t="n">
-        <v>89</v>
+        <v>88.9919479417</v>
       </c>
       <c r="K4" t="n">
-        <v>47.6</v>
+        <v>47.6269806615</v>
       </c>
       <c r="L4" t="n">
-        <v>224.8</v>
+        <v>224.828289542</v>
       </c>
       <c r="M4" t="n">
-        <v>81.5</v>
+        <v>81.5241847911</v>
       </c>
       <c r="N4" t="n">
-        <v>55.5</v>
+        <v>55.4954585058</v>
       </c>
     </row>
     <row r="5">
@@ -645,43 +645,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.7</v>
+        <v>27.6897</v>
       </c>
       <c r="C5" t="n">
-        <v>120.8</v>
+        <v>120.7848</v>
       </c>
       <c r="D5" t="n">
-        <v>38.4</v>
+        <v>38.4258</v>
       </c>
       <c r="E5" t="n">
-        <v>48.6</v>
+        <v>48.6116</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>39.9532</v>
       </c>
       <c r="G5" t="n">
-        <v>89.8</v>
+        <v>89.8212</v>
       </c>
       <c r="H5" t="n">
-        <v>76.2</v>
+        <v>76.1649</v>
       </c>
       <c r="I5" t="n">
-        <v>17.7</v>
+        <v>17.7144</v>
       </c>
       <c r="J5" t="n">
-        <v>93.5</v>
+        <v>93.4693</v>
       </c>
       <c r="K5" t="n">
-        <v>53.2</v>
+        <v>53.1609</v>
       </c>
       <c r="L5" t="n">
-        <v>235.4</v>
+        <v>235.4053</v>
       </c>
       <c r="M5" t="n">
-        <v>90.90000000000001</v>
+        <v>90.8779</v>
       </c>
       <c r="N5" t="n">
-        <v>57.5</v>
+        <v>57.5458</v>
       </c>
     </row>
     <row r="6">
@@ -691,43 +691,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.7</v>
+        <v>29.7344154567</v>
       </c>
       <c r="C6" t="n">
-        <v>122.2</v>
+        <v>122.1810080929</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>39.9859459599</v>
       </c>
       <c r="E6" t="n">
-        <v>51</v>
+        <v>50.9600943565</v>
       </c>
       <c r="F6" t="n">
-        <v>39.3</v>
+        <v>39.303497272</v>
       </c>
       <c r="G6" t="n">
-        <v>91.7</v>
+        <v>91.6596050454</v>
       </c>
       <c r="H6" t="n">
-        <v>78.59999999999999</v>
+        <v>78.63099207659999</v>
       </c>
       <c r="I6" t="n">
-        <v>18.4</v>
+        <v>18.3540340257</v>
       </c>
       <c r="J6" t="n">
-        <v>95.3</v>
+        <v>95.3359341247</v>
       </c>
       <c r="K6" t="n">
-        <v>56.5</v>
+        <v>56.4848135541</v>
       </c>
       <c r="L6" t="n">
-        <v>240</v>
+        <v>239.9520319968</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09999999999999</v>
+        <v>96.1469674323</v>
       </c>
       <c r="N6" t="n">
-        <v>58.7</v>
+        <v>58.7364643101</v>
       </c>
     </row>
     <row r="7">
@@ -737,43 +737,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>32.9989570145</v>
       </c>
       <c r="C7" t="n">
-        <v>119.3</v>
+        <v>119.2620095307</v>
       </c>
       <c r="D7" t="n">
-        <v>39.2</v>
+        <v>39.2066561147</v>
       </c>
       <c r="E7" t="n">
-        <v>56.4</v>
+        <v>56.3998196869</v>
       </c>
       <c r="F7" t="n">
-        <v>35.7</v>
+        <v>35.7102033761</v>
       </c>
       <c r="G7" t="n">
-        <v>93.8</v>
+        <v>93.78021101349999</v>
       </c>
       <c r="H7" t="n">
-        <v>85</v>
+        <v>84.99786290599999</v>
       </c>
       <c r="I7" t="n">
-        <v>12.6</v>
+        <v>12.6331033588</v>
       </c>
       <c r="J7" t="n">
-        <v>98.8</v>
+        <v>98.7604397345</v>
       </c>
       <c r="K7" t="n">
-        <v>59.2</v>
+        <v>59.2116994735</v>
       </c>
       <c r="L7" t="n">
-        <v>249.1</v>
+        <v>249.0600017047</v>
       </c>
       <c r="M7" t="n">
-        <v>109.3</v>
+        <v>109.2980589505</v>
       </c>
       <c r="N7" t="n">
-        <v>53.4</v>
+        <v>53.3637600073</v>
       </c>
     </row>
     <row r="8">
@@ -783,43 +783,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.3</v>
+        <v>35.3122365057</v>
       </c>
       <c r="C8" t="n">
-        <v>120.6</v>
+        <v>120.6009669851</v>
       </c>
       <c r="D8" t="n">
-        <v>40.1</v>
+        <v>40.1274177579</v>
       </c>
       <c r="E8" t="n">
-        <v>59.3</v>
+        <v>59.3165244781</v>
       </c>
       <c r="F8" t="n">
-        <v>34.2</v>
+        <v>34.1528952698</v>
       </c>
       <c r="G8" t="n">
-        <v>96</v>
+        <v>95.9612615623</v>
       </c>
       <c r="H8" t="n">
-        <v>86.90000000000001</v>
+        <v>86.9439596707</v>
       </c>
       <c r="I8" t="n">
-        <v>12.2</v>
+        <v>12.2222278616</v>
       </c>
       <c r="J8" t="n">
-        <v>100.9</v>
+        <v>100.8668101275</v>
       </c>
       <c r="K8" t="n">
-        <v>63.9</v>
+        <v>63.9379587444</v>
       </c>
       <c r="L8" t="n">
-        <v>253.2</v>
+        <v>253.2403151615</v>
       </c>
       <c r="M8" t="n">
-        <v>115.6</v>
+        <v>115.643282159</v>
       </c>
       <c r="N8" t="n">
-        <v>53.2</v>
+        <v>53.2371923715</v>
       </c>
     </row>
     <row r="9">
@@ -829,43 +829,125 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37.1</v>
+        <v>37.1401929058467</v>
       </c>
       <c r="C9" t="n">
-        <v>120.8</v>
+        <v>120.797903702809</v>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>41.0047492149819</v>
       </c>
       <c r="E9" t="n">
-        <v>60.9</v>
+        <v>60.8557657646377</v>
       </c>
       <c r="F9" t="n">
-        <v>33.1</v>
+        <v>33.1081645026222</v>
       </c>
       <c r="G9" t="n">
-        <v>96.7</v>
+        <v>96.74755570737879</v>
       </c>
       <c r="H9" t="n">
-        <v>90.40000000000001</v>
+        <v>90.4325240756464</v>
       </c>
       <c r="I9" t="n">
-        <v>12.1</v>
+        <v>12.1273951810816</v>
       </c>
       <c r="J9" t="n">
-        <v>101.8</v>
+        <v>101.834619138211</v>
       </c>
       <c r="K9" t="n">
-        <v>66.7</v>
+        <v>66.6891953518998</v>
       </c>
       <c r="L9" t="n">
-        <v>253.8</v>
+        <v>253.840843772832</v>
       </c>
       <c r="M9" t="n">
-        <v>117.7</v>
+        <v>117.738014531804</v>
       </c>
       <c r="N9" t="n">
-        <v>54.2</v>
+        <v>54.1889584463376</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>259.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>43.5419742834177</v>
+      </c>
+      <c r="C11" t="n">
+        <v>118.885001318792</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>30.8052879397484</v>
+      </c>
+      <c r="G11" t="n">
+        <v>99.04344805616149</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>104.170812652236</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>259.351694347994</v>
+      </c>
+      <c r="M11" t="n">
+        <v>133.898697356459</v>
+      </c>
+      <c r="N11" t="n">
+        <v>47.4604270421034</v>
       </c>
     </row>
   </sheetData>
